--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:13:19+00:00</t>
+    <t>2025-11-28T01:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:33:25+00:00</t>
+    <t>2025-11-28T01:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:50:23+00:00</t>
+    <t>2025-11-28T01:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:53:43+00:00</t>
+    <t>2025-11-28T01:54:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:54:35+00:00</t>
+    <t>2025-11-28T02:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T02:23:26+00:00</t>
+    <t>2025-11-28T14:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:19:47+00:00</t>
+    <t>2025-11-28T14:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:30:06+00:00</t>
+    <t>2025-11-28T23:45:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T23:45:15+00:00</t>
+    <t>2025-11-29T18:33:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T18:33:05+00:00</t>
+    <t>2025-11-29T20:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:11:04+00:00</t>
+    <t>2025-11-29T20:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:12:38+00:00</t>
+    <t>2025-11-29T20:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:13:59+00:00</t>
+    <t>2025-11-29T20:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:15:31+00:00</t>
+    <t>2025-11-29T20:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:17:30+00:00</t>
+    <t>2025-11-29T20:18:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:18:47+00:00</t>
+    <t>2025-11-29T20:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:28:17+00:00</t>
+    <t>2025-11-29T22:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:25:22+00:00</t>
+    <t>2025-11-29T22:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:30:40+00:00</t>
+    <t>2025-11-29T22:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:31:14+00:00</t>
+    <t>2025-11-29T22:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:31:57+00:00</t>
+    <t>2025-11-29T22:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:32:34+00:00</t>
+    <t>2025-11-29T22:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:36:45+00:00</t>
+    <t>2025-11-29T22:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:37:43+00:00</t>
+    <t>2025-11-29T22:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:52:23+00:00</t>
+    <t>2025-11-29T23:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T23:02:36+00:00</t>
+    <t>2025-11-29T23:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:47:54+00:00</t>
+    <t>2025-12-25T09:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="566">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:53:19+00:00</t>
+    <t>2025-12-25T10:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A profile for the Braden Scale pressure ulcer risk assessment</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -671,8 +674,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="9017-7"/&gt;
-    &lt;display value="Braden Scale total score"/&gt;
+    &lt;code value="38227-0"/&gt;
+    &lt;display value="Braden scale total score"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1017,7 +1020,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>score</t>
+    <t>{score}</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -1067,9 +1070,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>{score}</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1614,8 +1614,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="74012-8"/&gt;
-    &lt;display value="Sensory Perception"/&gt;
+    &lt;code value="38222-1"/&gt;
+    &lt;display value="Sensory perception Braden scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1653,8 +1653,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="74013-6"/&gt;
-    &lt;display value="Moisture"/&gt;
+    &lt;code value="38229-6"/&gt;
+    &lt;display value="Moisture Braden scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1692,8 +1692,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="74014-4"/&gt;
-    &lt;display value="Activity"/&gt;
+    &lt;code value="38223-9"/&gt;
+    &lt;display value="Activity Braden scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1731,8 +1731,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="74015-1"/&gt;
-    &lt;display value="Mobility"/&gt;
+    &lt;code value="38224-7"/&gt;
+    &lt;display value="Mobility Braden scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1770,8 +1770,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="74016-9"/&gt;
-    &lt;display value="Nutrition"/&gt;
+    &lt;code value="38225-4"/&gt;
+    &lt;display value="Nutrition Braden scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1809,8 +1809,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="74017-7"/&gt;
-    &lt;display value="Friction and Shear"/&gt;
+    &lt;code value="38226-2"/&gt;
+    &lt;display value="Friction and shear Braden scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2063,66 +2063,68 @@
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2186,149 +2188,149 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>17</v>
@@ -2340,16 +2342,16 @@
         <v>17</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2399,31 +2401,31 @@
         <v>17</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>17</v>
@@ -2434,10 +2436,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2445,10 +2447,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>17</v>
@@ -2457,19 +2459,19 @@
         <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2519,13 +2521,13 @@
         <v>17</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>17</v>
@@ -2554,10 +2556,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2565,10 +2567,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>
@@ -2577,16 +2579,16 @@
         <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2637,19 +2639,19 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>17</v>
@@ -2672,10 +2674,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2683,31 +2685,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2757,19 +2759,19 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>17</v>
@@ -2792,10 +2794,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2803,10 +2805,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -2818,16 +2820,16 @@
         <v>17</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2853,13 +2855,13 @@
         <v>17</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>17</v>
@@ -2877,19 +2879,19 @@
         <v>17</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>17</v>
@@ -2912,21 +2914,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -2938,16 +2940,16 @@
         <v>17</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2997,19 +2999,19 @@
         <v>17</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>17</v>
@@ -3021,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>17</v>
@@ -3032,21 +3034,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>17</v>
@@ -3058,16 +3060,16 @@
         <v>17</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3117,13 +3119,13 @@
         <v>17</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>17</v>
@@ -3141,7 +3143,7 @@
         <v>17</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>17</v>
@@ -3152,21 +3154,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>17</v>
@@ -3178,16 +3180,16 @@
         <v>17</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3237,19 +3239,19 @@
         <v>17</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>17</v>
@@ -3261,7 +3263,7 @@
         <v>17</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>17</v>
@@ -3272,45 +3274,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>17</v>
@@ -3359,19 +3361,19 @@
         <v>17</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>17</v>
@@ -3383,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>17</v>
@@ -3394,10 +3396,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3405,10 +3407,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>17</v>
@@ -3417,20 +3419,20 @@
         <v>17</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>17</v>
@@ -3479,34 +3481,34 @@
         <v>17</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>17</v>
@@ -3514,21 +3516,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -3537,20 +3539,20 @@
         <v>17</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>17</v>
@@ -3599,31 +3601,31 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>17</v>
@@ -3634,21 +3636,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>17</v>
@@ -3657,19 +3659,19 @@
         <v>17</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3719,31 +3721,31 @@
         <v>17</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>17</v>
@@ -3754,10 +3756,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3765,34 +3767,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>17</v>
@@ -3802,7 +3804,7 @@
         <v>17</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>17</v>
@@ -3817,13 +3819,13 @@
         <v>17</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>17</v>
@@ -3841,34 +3843,34 @@
         <v>17</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>17</v>
@@ -3876,10 +3878,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3887,10 +3889,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>17</v>
@@ -3902,19 +3904,19 @@
         <v>17</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>17</v>
@@ -3939,41 +3941,41 @@
         <v>17</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>17</v>
@@ -3985,10 +3987,10 @@
         <v>17</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>17</v>
@@ -3996,26 +3998,26 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -4024,19 +4026,19 @@
         <v>17</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>17</v>
@@ -4046,7 +4048,7 @@
         <v>17</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>17</v>
@@ -4061,13 +4063,13 @@
         <v>17</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>17</v>
@@ -4085,19 +4087,19 @@
         <v>17</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>17</v>
@@ -4109,10 +4111,10 @@
         <v>17</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>17</v>
@@ -4120,45 +4122,45 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>17</v>
@@ -4168,7 +4170,7 @@
         <v>17</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>17</v>
@@ -4183,13 +4185,13 @@
         <v>17</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>17</v>
@@ -4207,45 +4209,45 @@
         <v>17</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4253,10 +4255,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>17</v>
@@ -4265,22 +4267,22 @@
         <v>17</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>17</v>
@@ -4329,34 +4331,34 @@
         <v>17</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>17</v>
@@ -4364,10 +4366,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4375,10 +4377,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>17</v>
@@ -4387,19 +4389,19 @@
         <v>17</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4449,34 +4451,34 @@
         <v>17</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>17</v>
@@ -4484,21 +4486,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>17</v>
@@ -4507,22 +4509,22 @@
         <v>17</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>17</v>
@@ -4571,34 +4573,34 @@
         <v>17</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>17</v>
@@ -4606,21 +4608,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>17</v>
@@ -4629,22 +4631,22 @@
         <v>17</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>17</v>
@@ -4693,34 +4695,34 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>17</v>
@@ -4728,10 +4730,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4739,10 +4741,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>17</v>
@@ -4751,19 +4753,19 @@
         <v>17</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4813,19 +4815,19 @@
         <v>17</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>17</v>
@@ -4834,13 +4836,13 @@
         <v>17</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>17</v>
@@ -4848,10 +4850,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4859,32 +4861,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>17</v>
@@ -4933,34 +4935,34 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>17</v>
@@ -4968,10 +4970,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4979,34 +4981,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>17</v>
@@ -5055,45 +5057,45 @@
         <v>17</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5101,10 +5103,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>17</v>
@@ -5116,13 +5118,13 @@
         <v>17</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5173,13 +5175,13 @@
         <v>17</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>17</v>
@@ -5197,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>17</v>
@@ -5208,21 +5210,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -5234,16 +5236,16 @@
         <v>17</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5281,31 +5283,31 @@
         <v>17</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>17</v>
@@ -5317,7 +5319,7 @@
         <v>17</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>17</v>
@@ -5328,10 +5330,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5339,10 +5341,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -5351,22 +5353,22 @@
         <v>17</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>17</v>
@@ -5415,19 +5417,19 @@
         <v>17</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>17</v>
@@ -5436,10 +5438,10 @@
         <v>17</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>17</v>
@@ -5450,10 +5452,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5461,38 +5463,38 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>17</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>17</v>
@@ -5513,13 +5515,13 @@
         <v>17</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>17</v>
@@ -5537,19 +5539,19 @@
         <v>17</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>17</v>
@@ -5558,10 +5560,10 @@
         <v>17</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>17</v>
@@ -5572,10 +5574,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5583,10 +5585,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>17</v>
@@ -5595,20 +5597,20 @@
         <v>17</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>17</v>
@@ -5618,7 +5620,7 @@
         <v>17</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>17</v>
@@ -5657,19 +5659,19 @@
         <v>17</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>17</v>
@@ -5678,10 +5680,10 @@
         <v>17</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>17</v>
@@ -5692,10 +5694,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5703,10 +5705,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -5715,20 +5717,20 @@
         <v>17</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>17</v>
@@ -5738,7 +5740,7 @@
         <v>17</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>17</v>
@@ -5777,19 +5779,19 @@
         <v>17</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>17</v>
@@ -5798,10 +5800,10 @@
         <v>17</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>17</v>
@@ -5812,10 +5814,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5823,10 +5825,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>17</v>
@@ -5835,22 +5837,22 @@
         <v>17</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>17</v>
@@ -5860,7 +5862,7 @@
         <v>17</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>17</v>
@@ -5902,16 +5904,16 @@
         <v>335</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>17</v>
@@ -5920,7 +5922,7 @@
         <v>17</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>336</v>
@@ -5945,10 +5947,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -5960,7 +5962,7 @@
         <v>17</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>338</v>
@@ -6024,16 +6026,16 @@
         <v>337</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>17</v>
@@ -6042,7 +6044,7 @@
         <v>17</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>346</v>
@@ -6067,10 +6069,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>17</v>
@@ -6082,7 +6084,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>349</v>
@@ -6146,16 +6148,16 @@
         <v>347</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>17</v>
@@ -6189,10 +6191,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -6268,16 +6270,16 @@
         <v>359</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>17</v>
@@ -6311,10 +6313,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>17</v>
@@ -6326,7 +6328,7 @@
         <v>17</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>368</v>
@@ -6361,7 +6363,7 @@
         <v>17</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>371</v>
@@ -6388,16 +6390,16 @@
         <v>367</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>17</v>
@@ -6431,10 +6433,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>17</v>
@@ -6446,7 +6448,7 @@
         <v>17</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>378</v>
@@ -6483,7 +6485,7 @@
         <v>17</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>382</v>
@@ -6510,16 +6512,16 @@
         <v>377</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>17</v>
@@ -6553,10 +6555,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -6630,16 +6632,16 @@
         <v>386</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>17</v>
@@ -6673,10 +6675,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>17</v>
@@ -6750,16 +6752,16 @@
         <v>395</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>17</v>
@@ -6793,10 +6795,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>17</v>
@@ -6872,10 +6874,10 @@
         <v>404</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>17</v>
@@ -6915,10 +6917,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>17</v>
@@ -6930,13 +6932,13 @@
         <v>17</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6987,13 +6989,13 @@
         <v>17</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>17</v>
@@ -7011,7 +7013,7 @@
         <v>17</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>17</v>
@@ -7029,14 +7031,14 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>17</v>
@@ -7048,16 +7050,16 @@
         <v>17</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7107,19 +7109,19 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>17</v>
@@ -7131,7 +7133,7 @@
         <v>17</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>17</v>
@@ -7153,22 +7155,22 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>417</v>
@@ -7177,10 +7179,10 @@
         <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>17</v>
@@ -7232,16 +7234,16 @@
         <v>419</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>17</v>
@@ -7253,7 +7255,7 @@
         <v>17</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>17</v>
@@ -7275,10 +7277,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>17</v>
@@ -7350,16 +7352,16 @@
         <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>424</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>17</v>
@@ -7393,10 +7395,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>17</v>
@@ -7468,16 +7470,16 @@
         <v>427</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>424</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>17</v>
@@ -7511,10 +7513,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>17</v>
@@ -7526,7 +7528,7 @@
         <v>17</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>432</v>
@@ -7563,7 +7565,7 @@
         <v>17</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y45" t="s" s="2">
         <v>436</v>
@@ -7590,16 +7592,16 @@
         <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>17</v>
@@ -7633,10 +7635,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -7648,7 +7650,7 @@
         <v>17</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>441</v>
@@ -7685,7 +7687,7 @@
         <v>17</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y46" t="s" s="2">
         <v>445</v>
@@ -7712,16 +7714,16 @@
         <v>440</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>17</v>
@@ -7755,10 +7757,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
@@ -7832,16 +7834,16 @@
         <v>447</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>17</v>
@@ -7875,10 +7877,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>17</v>
@@ -7890,7 +7892,7 @@
         <v>17</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>454</v>
@@ -7950,16 +7952,16 @@
         <v>453</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>17</v>
@@ -7993,10 +7995,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>17</v>
@@ -8005,7 +8007,7 @@
         <v>17</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>458</v>
@@ -8070,16 +8072,16 @@
         <v>457</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>17</v>
@@ -8113,10 +8115,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>17</v>
@@ -8125,7 +8127,7 @@
         <v>17</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>465</v>
@@ -8190,16 +8192,16 @@
         <v>464</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>17</v>
@@ -8239,13 +8241,13 @@
         <v>471</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>405</v>
@@ -8304,22 +8306,22 @@
         <v>17</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>17</v>
@@ -8353,10 +8355,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>17</v>
@@ -8368,13 +8370,13 @@
         <v>17</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8425,13 +8427,13 @@
         <v>17</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>17</v>
@@ -8449,7 +8451,7 @@
         <v>17</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
@@ -8467,14 +8469,14 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>17</v>
@@ -8486,16 +8488,16 @@
         <v>17</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8545,19 +8547,19 @@
         <v>17</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>17</v>
@@ -8569,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>17</v>
@@ -8591,22 +8593,22 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>417</v>
@@ -8615,10 +8617,10 @@
         <v>418</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>17</v>
@@ -8670,16 +8672,16 @@
         <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>17</v>
@@ -8691,7 +8693,7 @@
         <v>17</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>17</v>
@@ -8713,10 +8715,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>17</v>
@@ -8725,10 +8727,10 @@
         <v>17</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>483</v>
@@ -8740,7 +8742,7 @@
         <v>485</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>17</v>
@@ -8765,13 +8767,13 @@
         <v>17</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>17</v>
@@ -8792,16 +8794,16 @@
         <v>482</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>17</v>
@@ -8810,13 +8812,13 @@
         <v>486</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>17</v>
@@ -8835,10 +8837,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>17</v>
@@ -8847,7 +8849,7 @@
         <v>17</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>488</v>
@@ -8856,13 +8858,13 @@
         <v>489</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>17</v>
@@ -8914,16 +8916,16 @@
         <v>487</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>17</v>
@@ -8932,16 +8934,16 @@
         <v>491</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -8957,10 +8959,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>17</v>
@@ -8972,7 +8974,7 @@
         <v>17</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>493</v>
@@ -9036,16 +9038,16 @@
         <v>492</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>17</v>
@@ -9054,7 +9056,7 @@
         <v>17</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>346</v>
@@ -9079,10 +9081,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>17</v>
@@ -9094,7 +9096,7 @@
         <v>17</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>349</v>
@@ -9158,16 +9160,16 @@
         <v>496</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>17</v>
@@ -9201,10 +9203,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>17</v>
@@ -9216,7 +9218,7 @@
         <v>17</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>498</v>
@@ -9280,16 +9282,16 @@
         <v>497</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>17</v>
@@ -9325,19 +9327,19 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>405</v>
@@ -9404,16 +9406,16 @@
         <v>470</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>17</v>
@@ -9447,10 +9449,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>17</v>
@@ -9462,13 +9464,13 @@
         <v>17</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9519,13 +9521,13 @@
         <v>17</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>17</v>
@@ -9543,7 +9545,7 @@
         <v>17</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>17</v>
@@ -9561,14 +9563,14 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>17</v>
@@ -9580,16 +9582,16 @@
         <v>17</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9639,19 +9641,19 @@
         <v>17</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>17</v>
@@ -9663,7 +9665,7 @@
         <v>17</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>17</v>
@@ -9685,22 +9687,22 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>417</v>
@@ -9709,10 +9711,10 @@
         <v>418</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>17</v>
@@ -9764,16 +9766,16 @@
         <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>17</v>
@@ -9785,7 +9787,7 @@
         <v>17</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>17</v>
@@ -9807,10 +9809,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>17</v>
@@ -9819,10 +9821,10 @@
         <v>17</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>483</v>
@@ -9834,7 +9836,7 @@
         <v>485</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>17</v>
@@ -9859,13 +9861,13 @@
         <v>17</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>17</v>
@@ -9886,16 +9888,16 @@
         <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>17</v>
@@ -9904,13 +9906,13 @@
         <v>486</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>17</v>
@@ -9929,10 +9931,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>17</v>
@@ -9941,22 +9943,22 @@
         <v>17</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>489</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>17</v>
@@ -10008,16 +10010,16 @@
         <v>487</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>17</v>
@@ -10026,16 +10028,16 @@
         <v>491</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -10051,10 +10053,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>17</v>
@@ -10066,7 +10068,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>493</v>
@@ -10130,16 +10132,16 @@
         <v>492</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>17</v>
@@ -10148,7 +10150,7 @@
         <v>17</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>346</v>
@@ -10173,10 +10175,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>17</v>
@@ -10188,7 +10190,7 @@
         <v>17</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>349</v>
@@ -10252,16 +10254,16 @@
         <v>496</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>17</v>
@@ -10295,10 +10297,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>17</v>
@@ -10310,7 +10312,7 @@
         <v>17</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>498</v>
@@ -10374,16 +10376,16 @@
         <v>497</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>17</v>
@@ -10419,19 +10421,19 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>405</v>
@@ -10498,16 +10500,16 @@
         <v>470</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>17</v>
@@ -10541,10 +10543,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>17</v>
@@ -10556,13 +10558,13 @@
         <v>17</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10613,13 +10615,13 @@
         <v>17</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>17</v>
@@ -10637,7 +10639,7 @@
         <v>17</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>17</v>
@@ -10655,14 +10657,14 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>17</v>
@@ -10674,16 +10676,16 @@
         <v>17</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10733,19 +10735,19 @@
         <v>17</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>17</v>
@@ -10757,7 +10759,7 @@
         <v>17</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>17</v>
@@ -10779,22 +10781,22 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>417</v>
@@ -10803,10 +10805,10 @@
         <v>418</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>17</v>
@@ -10858,16 +10860,16 @@
         <v>419</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>17</v>
@@ -10879,7 +10881,7 @@
         <v>17</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>17</v>
@@ -10901,10 +10903,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>17</v>
@@ -10913,10 +10915,10 @@
         <v>17</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>483</v>
@@ -10928,7 +10930,7 @@
         <v>485</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>17</v>
@@ -10953,13 +10955,13 @@
         <v>17</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>17</v>
@@ -10980,16 +10982,16 @@
         <v>482</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>17</v>
@@ -10998,13 +11000,13 @@
         <v>486</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>17</v>
@@ -11023,10 +11025,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>17</v>
@@ -11035,22 +11037,22 @@
         <v>17</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>489</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>17</v>
@@ -11102,16 +11104,16 @@
         <v>487</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>17</v>
@@ -11120,16 +11122,16 @@
         <v>491</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -11145,10 +11147,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>17</v>
@@ -11160,7 +11162,7 @@
         <v>17</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>493</v>
@@ -11224,16 +11226,16 @@
         <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>17</v>
@@ -11242,7 +11244,7 @@
         <v>17</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>346</v>
@@ -11267,10 +11269,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>17</v>
@@ -11282,7 +11284,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>349</v>
@@ -11346,16 +11348,16 @@
         <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>17</v>
@@ -11389,10 +11391,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>17</v>
@@ -11404,7 +11406,7 @@
         <v>17</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>498</v>
@@ -11468,16 +11470,16 @@
         <v>497</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>17</v>
@@ -11513,19 +11515,19 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>405</v>
@@ -11592,16 +11594,16 @@
         <v>470</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>17</v>
@@ -11635,10 +11637,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>17</v>
@@ -11650,13 +11652,13 @@
         <v>17</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11707,13 +11709,13 @@
         <v>17</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>17</v>
@@ -11731,7 +11733,7 @@
         <v>17</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>17</v>
@@ -11749,14 +11751,14 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>17</v>
@@ -11768,16 +11770,16 @@
         <v>17</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11827,19 +11829,19 @@
         <v>17</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>17</v>
@@ -11851,7 +11853,7 @@
         <v>17</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>17</v>
@@ -11873,22 +11875,22 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>417</v>
@@ -11897,10 +11899,10 @@
         <v>418</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>17</v>
@@ -11952,16 +11954,16 @@
         <v>419</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>17</v>
@@ -11973,7 +11975,7 @@
         <v>17</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>17</v>
@@ -11995,10 +11997,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>17</v>
@@ -12007,10 +12009,10 @@
         <v>17</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>483</v>
@@ -12022,7 +12024,7 @@
         <v>485</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>17</v>
@@ -12047,13 +12049,13 @@
         <v>17</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>17</v>
@@ -12074,16 +12076,16 @@
         <v>482</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>17</v>
@@ -12092,13 +12094,13 @@
         <v>486</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>17</v>
@@ -12117,10 +12119,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>17</v>
@@ -12129,22 +12131,22 @@
         <v>17</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>17</v>
@@ -12196,16 +12198,16 @@
         <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>17</v>
@@ -12214,16 +12216,16 @@
         <v>491</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" hidden="true">
@@ -12239,10 +12241,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>17</v>
@@ -12254,7 +12256,7 @@
         <v>17</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>493</v>
@@ -12318,16 +12320,16 @@
         <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>17</v>
@@ -12336,7 +12338,7 @@
         <v>17</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>346</v>
@@ -12361,10 +12363,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>17</v>
@@ -12376,7 +12378,7 @@
         <v>17</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>349</v>
@@ -12440,16 +12442,16 @@
         <v>496</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>17</v>
@@ -12483,10 +12485,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>17</v>
@@ -12498,7 +12500,7 @@
         <v>17</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>498</v>
@@ -12562,16 +12564,16 @@
         <v>497</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>17</v>
@@ -12607,19 +12609,19 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>405</v>
@@ -12686,16 +12688,16 @@
         <v>470</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>17</v>
@@ -12729,10 +12731,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>17</v>
@@ -12744,13 +12746,13 @@
         <v>17</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12801,13 +12803,13 @@
         <v>17</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>17</v>
@@ -12825,7 +12827,7 @@
         <v>17</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>17</v>
@@ -12843,14 +12845,14 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>17</v>
@@ -12862,16 +12864,16 @@
         <v>17</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12921,19 +12923,19 @@
         <v>17</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>17</v>
@@ -12945,7 +12947,7 @@
         <v>17</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>17</v>
@@ -12967,22 +12969,22 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>417</v>
@@ -12991,10 +12993,10 @@
         <v>418</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>17</v>
@@ -13046,16 +13048,16 @@
         <v>419</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>17</v>
@@ -13067,7 +13069,7 @@
         <v>17</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>17</v>
@@ -13089,10 +13091,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>17</v>
@@ -13101,10 +13103,10 @@
         <v>17</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>483</v>
@@ -13116,7 +13118,7 @@
         <v>485</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>17</v>
@@ -13141,13 +13143,13 @@
         <v>17</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>17</v>
@@ -13168,16 +13170,16 @@
         <v>482</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>17</v>
@@ -13186,13 +13188,13 @@
         <v>486</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>17</v>
@@ -13211,10 +13213,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>17</v>
@@ -13223,22 +13225,22 @@
         <v>17</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>489</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>17</v>
@@ -13290,16 +13292,16 @@
         <v>487</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>17</v>
@@ -13308,16 +13310,16 @@
         <v>491</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" hidden="true">
@@ -13333,10 +13335,10 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>17</v>
@@ -13348,7 +13350,7 @@
         <v>17</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>493</v>
@@ -13412,16 +13414,16 @@
         <v>492</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>17</v>
@@ -13430,7 +13432,7 @@
         <v>17</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>346</v>
@@ -13455,10 +13457,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>17</v>
@@ -13470,7 +13472,7 @@
         <v>17</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>349</v>
@@ -13534,16 +13536,16 @@
         <v>496</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>17</v>
@@ -13577,10 +13579,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>17</v>
@@ -13592,7 +13594,7 @@
         <v>17</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>498</v>
@@ -13656,16 +13658,16 @@
         <v>497</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>17</v>
@@ -13701,19 +13703,19 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>405</v>
@@ -13780,16 +13782,16 @@
         <v>470</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>17</v>
@@ -13823,10 +13825,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>17</v>
@@ -13838,13 +13840,13 @@
         <v>17</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13895,13 +13897,13 @@
         <v>17</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>17</v>
@@ -13919,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>17</v>
@@ -13937,14 +13939,14 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>17</v>
@@ -13956,16 +13958,16 @@
         <v>17</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14015,19 +14017,19 @@
         <v>17</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>17</v>
@@ -14039,7 +14041,7 @@
         <v>17</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>17</v>
@@ -14061,22 +14063,22 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>417</v>
@@ -14085,10 +14087,10 @@
         <v>418</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>17</v>
@@ -14140,16 +14142,16 @@
         <v>419</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>17</v>
@@ -14161,7 +14163,7 @@
         <v>17</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>17</v>
@@ -14183,10 +14185,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>17</v>
@@ -14195,10 +14197,10 @@
         <v>17</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>483</v>
@@ -14210,7 +14212,7 @@
         <v>485</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>17</v>
@@ -14235,13 +14237,13 @@
         <v>17</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>17</v>
@@ -14262,16 +14264,16 @@
         <v>482</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>17</v>
@@ -14280,13 +14282,13 @@
         <v>486</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>17</v>
@@ -14305,10 +14307,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>17</v>
@@ -14317,22 +14319,22 @@
         <v>17</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>489</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>17</v>
@@ -14384,16 +14386,16 @@
         <v>487</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>17</v>
@@ -14402,16 +14404,16 @@
         <v>491</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" hidden="true">
@@ -14427,10 +14429,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>17</v>
@@ -14442,7 +14444,7 @@
         <v>17</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>493</v>
@@ -14506,16 +14508,16 @@
         <v>492</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>17</v>
@@ -14524,7 +14526,7 @@
         <v>17</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>346</v>
@@ -14549,10 +14551,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>17</v>
@@ -14564,7 +14566,7 @@
         <v>17</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>349</v>
@@ -14628,16 +14630,16 @@
         <v>496</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>17</v>
@@ -14671,10 +14673,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>17</v>
@@ -14686,7 +14688,7 @@
         <v>17</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>498</v>
@@ -14750,16 +14752,16 @@
         <v>497</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>17</v>
@@ -14795,19 +14797,19 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>405</v>
@@ -14874,16 +14876,16 @@
         <v>470</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>17</v>
@@ -14917,10 +14919,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>17</v>
@@ -14932,13 +14934,13 @@
         <v>17</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14989,13 +14991,13 @@
         <v>17</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>17</v>
@@ -15013,7 +15015,7 @@
         <v>17</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>17</v>
@@ -15031,14 +15033,14 @@
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>17</v>
@@ -15050,16 +15052,16 @@
         <v>17</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15109,19 +15111,19 @@
         <v>17</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>17</v>
@@ -15133,7 +15135,7 @@
         <v>17</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>17</v>
@@ -15155,22 +15157,22 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>417</v>
@@ -15179,10 +15181,10 @@
         <v>418</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>17</v>
@@ -15234,16 +15236,16 @@
         <v>419</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>17</v>
@@ -15255,7 +15257,7 @@
         <v>17</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>17</v>
@@ -15277,10 +15279,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>17</v>
@@ -15289,10 +15291,10 @@
         <v>17</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>483</v>
@@ -15304,7 +15306,7 @@
         <v>485</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>17</v>
@@ -15329,13 +15331,13 @@
         <v>17</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>17</v>
@@ -15356,16 +15358,16 @@
         <v>482</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>17</v>
@@ -15374,13 +15376,13 @@
         <v>486</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>17</v>
@@ -15399,10 +15401,10 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>17</v>
@@ -15411,22 +15413,22 @@
         <v>17</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>489</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>17</v>
@@ -15478,16 +15480,16 @@
         <v>487</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>17</v>
@@ -15496,16 +15498,16 @@
         <v>491</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" hidden="true">
@@ -15521,10 +15523,10 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>17</v>
@@ -15536,7 +15538,7 @@
         <v>17</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>493</v>
@@ -15600,16 +15602,16 @@
         <v>492</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>17</v>
@@ -15618,7 +15620,7 @@
         <v>17</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>346</v>
@@ -15643,10 +15645,10 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>17</v>
@@ -15658,7 +15660,7 @@
         <v>17</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>349</v>
@@ -15722,16 +15724,16 @@
         <v>496</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>17</v>
@@ -15765,10 +15767,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>17</v>
@@ -15780,7 +15782,7 @@
         <v>17</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>498</v>
@@ -15844,16 +15846,16 @@
         <v>497</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>17</v>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:01:16+00:00</t>
+    <t>2025-12-25T10:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:09:41+00:00</t>
+    <t>2025-12-25T10:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:22:11+00:00</t>
+    <t>2025-12-25T10:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:31:12+00:00</t>
+    <t>2025-12-25T10:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:39:21+00:00</t>
+    <t>2025-12-25T10:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:44:58+00:00</t>
+    <t>2025-12-25T23:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T23:47:50+00:00</t>
+    <t>2025-12-26T00:02:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:02:21+00:00</t>
+    <t>2025-12-26T00:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:05:34+00:00</t>
+    <t>2025-12-26T00:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:13:32+00:00</t>
+    <t>2025-12-26T00:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:14:27+00:00</t>
+    <t>2025-12-26T00:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:35:52+00:00</t>
+    <t>2025-12-26T00:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:40:38+00:00</t>
+    <t>2025-12-26T00:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:44:33+00:00</t>
+    <t>2025-12-26T01:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:02:00+00:00</t>
+    <t>2025-12-26T01:05:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:05:32+00:00</t>
+    <t>2025-12-26T01:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:36:34+00:00</t>
+    <t>2025-12-26T01:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:59:09+00:00</t>
+    <t>2025-12-26T02:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T02:26:51+00:00</t>
+    <t>2025-12-26T10:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:04:19+00:00</t>
+    <t>2025-12-26T10:13:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:13:27+00:00</t>
+    <t>2025-12-26T10:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:16:19+00:00</t>
+    <t>2025-12-26T10:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:24:22+00:00</t>
+    <t>2025-12-26T10:42:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:42:17+00:00</t>
+    <t>2025-12-26T10:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:50:19+00:00</t>
+    <t>2025-12-26T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:20:10+00:00</t>
+    <t>2025-12-26T11:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:23:52+00:00</t>
+    <t>2025-12-26T11:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:26:31+00:00</t>
+    <t>2025-12-26T11:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:27:38+00:00</t>
+    <t>2025-12-26T11:28:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:28:30+00:00</t>
+    <t>2025-12-26T11:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:29:16+00:00</t>
+    <t>2025-12-26T11:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:01+00:00</t>
+    <t>2025-12-26T11:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:54+00:00</t>
+    <t>2025-12-26T11:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:31:25+00:00</t>
+    <t>2025-12-26T11:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:15+00:00</t>
+    <t>2025-12-26T11:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:54+00:00</t>
+    <t>2025-12-26T11:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:01+00:00</t>
+    <t>2025-12-26T11:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:23+00:00</t>
+    <t>2025-12-26T11:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:47+00:00</t>
+    <t>2025-12-26T11:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:36:15+00:00</t>
+    <t>2025-12-26T11:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:47:29+00:00</t>
+    <t>2025-12-26T12:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:00:12+00:00</t>
+    <t>2025-12-26T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:02:28+00:00</t>
+    <t>2025-12-26T12:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:06:48+00:00</t>
+    <t>2025-12-26T12:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:07:46+00:00</t>
+    <t>2025-12-26T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:14:29+00:00</t>
+    <t>2025-12-26T12:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:21:51+00:00</t>
+    <t>2025-12-26T14:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -647,7 +647,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="nursing"/&gt;
+    &lt;code value="survey"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -673,9 +673,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38227-0"/&gt;
-    &lt;display value="Braden scale total score"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-total-score"/&gt;
+    &lt;display value="Braden Total Score"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1613,9 +1613,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38222-1"/&gt;
-    &lt;display value="Sensory perception Braden scale"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-sensory"/&gt;
+    &lt;display value="Braden Sensory Perception"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1652,9 +1652,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38229-6"/&gt;
-    &lt;display value="Moisture Braden scale"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-moisture"/&gt;
+    &lt;display value="Braden Moisture"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1691,9 +1691,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38223-9"/&gt;
-    &lt;display value="Activity Braden scale"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-activity"/&gt;
+    &lt;display value="Braden Activity"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1730,9 +1730,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38224-7"/&gt;
-    &lt;display value="Mobility Braden scale"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-mobility"/&gt;
+    &lt;display value="Braden Mobility"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1769,9 +1769,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38225-4"/&gt;
-    &lt;display value="Nutrition Braden scale"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-nutrition"/&gt;
+    &lt;display value="Braden Nutrition"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1808,9 +1808,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="38226-2"/&gt;
-    &lt;display value="Friction and shear Braden scale"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="braden-friction"/&gt;
+    &lt;display value="Braden Friction/Shear"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:28:37+00:00</t>
+    <t>2025-12-26T14:29:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:29:21+00:00</t>
+    <t>2025-12-26T14:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:36:57+00:00</t>
+    <t>2025-12-26T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:04+00:00</t>
+    <t>2025-12-26T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:51+00:00</t>
+    <t>2025-12-26T15:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:08:13+00:00</t>
+    <t>2026-01-01T16:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}onc-equity-skin-tone-required:Wound assessments MUST have an associated skin tone observation to ensure equitable care (AI Safety Gate). {hasMember.resolve().code.coding.where(code = '66555-4' or code = 'mst-score').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1474,10 +1474,27 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:resolve().code}
+</t>
+  </si>
+  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.hasMember:skinTone</t>
+  </si>
+  <si>
+    <t>skinTone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-skintone-observation|https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-monk-skintone-observation)
+</t>
+  </si>
+  <si>
+    <t>Mandatory Skin Tone Context (Equity Gate)</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -2134,7 +2151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP113"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2153,7 +2170,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="159.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7995,13 +8012,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -8057,16 +8074,14 @@
         <v>17</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>457</v>
@@ -8090,10 +8105,10 @@
         <v>17</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>17</v>
@@ -8102,26 +8117,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>17</v>
@@ -8130,16 +8147,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8189,7 +8206,7 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8210,10 +8227,10 @@
         <v>17</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>17</v>
@@ -8224,10 +8241,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8235,13 +8252,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -8250,20 +8267,18 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>17</v>
       </c>
@@ -8299,17 +8314,19 @@
         <v>17</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8330,10 +8347,10 @@
         <v>17</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>17</v>
@@ -8344,10 +8361,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8355,31 +8372,35 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>476</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>17</v>
       </c>
@@ -8415,31 +8436,29 @@
         <v>17</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>17</v>
@@ -8448,10 +8467,10 @@
         <v>17</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
@@ -8462,21 +8481,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>17</v>
@@ -8488,17 +8507,15 @@
         <v>17</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>17</v>
@@ -8547,19 +8564,19 @@
         <v>17</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>17</v>
@@ -8582,14 +8599,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8602,26 +8619,24 @@
         <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>17</v>
       </c>
@@ -8669,7 +8684,7 @@
         <v>17</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8693,7 +8708,7 @@
         <v>17</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>17</v>
@@ -8704,45 +8719,45 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>17</v>
@@ -8767,13 +8782,13 @@
         <v>17</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>17</v>
@@ -8791,34 +8806,34 @@
         <v>17</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>17</v>
@@ -8837,7 +8852,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8852,19 +8867,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>17</v>
@@ -8889,13 +8904,13 @@
         <v>17</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>17</v>
@@ -8916,7 +8931,7 @@
         <v>487</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>89</v>
@@ -8934,16 +8949,16 @@
         <v>491</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -8971,22 +8986,22 @@
         <v>17</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>188</v>
+        <v>493</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>17</v>
@@ -9011,13 +9026,13 @@
         <v>17</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>17</v>
@@ -9044,7 +9059,7 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -9053,38 +9068,38 @@
         <v>17</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>17</v>
@@ -9099,16 +9114,16 @@
         <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>17</v>
@@ -9136,10 +9151,10 @@
         <v>342</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>17</v>
@@ -9157,16 +9172,16 @@
         <v>17</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -9175,31 +9190,31 @@
         <v>17</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9218,19 +9233,19 @@
         <v>17</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>17</v>
@@ -9255,13 +9270,13 @@
         <v>17</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>17</v>
@@ -9279,7 +9294,7 @@
         <v>17</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9297,64 +9312,62 @@
         <v>17</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>17</v>
@@ -9403,7 +9416,7 @@
         <v>17</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9424,10 +9437,10 @@
         <v>17</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>17</v>
@@ -9436,44 +9449,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>17</v>
       </c>
@@ -9521,19 +9540,19 @@
         <v>17</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>17</v>
@@ -9542,10 +9561,10 @@
         <v>17</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>17</v>
@@ -9556,21 +9575,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>17</v>
@@ -9582,17 +9601,15 @@
         <v>17</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>17</v>
@@ -9641,19 +9658,19 @@
         <v>17</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>17</v>
@@ -9676,14 +9693,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9696,26 +9713,24 @@
         <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>17</v>
       </c>
@@ -9763,7 +9778,7 @@
         <v>17</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9787,7 +9802,7 @@
         <v>17</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>17</v>
@@ -9798,45 +9813,45 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>17</v>
@@ -9846,7 +9861,7 @@
         <v>17</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>506</v>
+        <v>17</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>17</v>
@@ -9861,13 +9876,13 @@
         <v>17</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>17</v>
@@ -9885,34 +9900,34 @@
         <v>17</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>17</v>
@@ -9920,7 +9935,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>487</v>
@@ -9931,7 +9946,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9946,19 +9961,19 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>17</v>
@@ -9968,7 +9983,7 @@
         <v>17</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>17</v>
+        <v>511</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>17</v>
@@ -9983,13 +9998,13 @@
         <v>17</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>17</v>
@@ -10010,7 +10025,7 @@
         <v>487</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -10028,21 +10043,21 @@
         <v>491</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>492</v>
@@ -10065,22 +10080,22 @@
         <v>17</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>17</v>
@@ -10105,13 +10120,13 @@
         <v>17</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>17</v>
@@ -10138,7 +10153,7 @@
         <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>101</v>
@@ -10147,38 +10162,38 @@
         <v>17</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>17</v>
@@ -10193,16 +10208,16 @@
         <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>17</v>
@@ -10230,10 +10245,10 @@
         <v>342</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>17</v>
@@ -10251,16 +10266,16 @@
         <v>17</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>101</v>
@@ -10269,31 +10284,31 @@
         <v>17</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10312,19 +10327,19 @@
         <v>17</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>17</v>
@@ -10349,13 +10364,13 @@
         <v>17</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>17</v>
@@ -10373,7 +10388,7 @@
         <v>17</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10391,64 +10406,62 @@
         <v>17</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>17</v>
@@ -10497,7 +10510,7 @@
         <v>17</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10518,10 +10531,10 @@
         <v>17</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>17</v>
@@ -10530,44 +10543,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>17</v>
       </c>
@@ -10615,19 +10634,19 @@
         <v>17</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>17</v>
@@ -10636,10 +10655,10 @@
         <v>17</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>17</v>
@@ -10650,21 +10669,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>17</v>
@@ -10676,17 +10695,15 @@
         <v>17</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>17</v>
@@ -10735,19 +10752,19 @@
         <v>17</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>17</v>
@@ -10770,14 +10787,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10790,26 +10807,24 @@
         <v>17</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>17</v>
       </c>
@@ -10857,7 +10872,7 @@
         <v>17</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10881,7 +10896,7 @@
         <v>17</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>17</v>
@@ -10892,45 +10907,45 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>17</v>
@@ -10940,7 +10955,7 @@
         <v>17</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>517</v>
+        <v>17</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>17</v>
@@ -10955,13 +10970,13 @@
         <v>17</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>17</v>
@@ -10979,34 +10994,34 @@
         <v>17</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>17</v>
@@ -11014,7 +11029,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>487</v>
@@ -11025,7 +11040,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>89</v>
@@ -11040,19 +11055,19 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>17</v>
@@ -11062,7 +11077,7 @@
         <v>17</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>17</v>
+        <v>522</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>17</v>
@@ -11077,13 +11092,13 @@
         <v>17</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>17</v>
@@ -11104,7 +11119,7 @@
         <v>487</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>89</v>
@@ -11122,21 +11137,21 @@
         <v>491</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>492</v>
@@ -11159,22 +11174,22 @@
         <v>17</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>17</v>
@@ -11199,13 +11214,13 @@
         <v>17</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>17</v>
@@ -11232,7 +11247,7 @@
         <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>101</v>
@@ -11241,38 +11256,38 @@
         <v>17</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>17</v>
@@ -11287,16 +11302,16 @@
         <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>17</v>
@@ -11324,10 +11339,10 @@
         <v>342</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>17</v>
@@ -11345,16 +11360,16 @@
         <v>17</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>101</v>
@@ -11363,31 +11378,31 @@
         <v>17</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11406,19 +11421,19 @@
         <v>17</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>17</v>
@@ -11443,13 +11458,13 @@
         <v>17</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>17</v>
@@ -11467,7 +11482,7 @@
         <v>17</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11485,64 +11500,62 @@
         <v>17</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>17</v>
@@ -11591,7 +11604,7 @@
         <v>17</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11612,10 +11625,10 @@
         <v>17</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>17</v>
@@ -11624,44 +11637,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>17</v>
       </c>
@@ -11709,19 +11728,19 @@
         <v>17</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>17</v>
@@ -11730,10 +11749,10 @@
         <v>17</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>17</v>
@@ -11744,21 +11763,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>17</v>
@@ -11770,17 +11789,15 @@
         <v>17</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>17</v>
@@ -11829,19 +11846,19 @@
         <v>17</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>17</v>
@@ -11864,14 +11881,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11884,26 +11901,24 @@
         <v>17</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O81" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>17</v>
       </c>
@@ -11951,7 +11966,7 @@
         <v>17</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11975,7 +11990,7 @@
         <v>17</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>17</v>
@@ -11986,45 +12001,45 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>17</v>
@@ -12034,7 +12049,7 @@
         <v>17</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>528</v>
+        <v>17</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>17</v>
@@ -12049,13 +12064,13 @@
         <v>17</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>17</v>
@@ -12073,34 +12088,34 @@
         <v>17</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>17</v>
@@ -12108,7 +12123,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>487</v>
@@ -12119,7 +12134,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -12134,19 +12149,19 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>17</v>
@@ -12156,7 +12171,7 @@
         <v>17</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>17</v>
+        <v>533</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>17</v>
@@ -12171,13 +12186,13 @@
         <v>17</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>17</v>
@@ -12198,7 +12213,7 @@
         <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -12216,21 +12231,21 @@
         <v>491</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>492</v>
@@ -12253,22 +12268,22 @@
         <v>17</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>17</v>
@@ -12293,13 +12308,13 @@
         <v>17</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>17</v>
@@ -12326,7 +12341,7 @@
         <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>101</v>
@@ -12335,38 +12350,38 @@
         <v>17</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>17</v>
@@ -12381,16 +12396,16 @@
         <v>188</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>17</v>
@@ -12418,10 +12433,10 @@
         <v>342</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>17</v>
@@ -12439,16 +12454,16 @@
         <v>17</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>101</v>
@@ -12457,31 +12472,31 @@
         <v>17</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12500,19 +12515,19 @@
         <v>17</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>17</v>
@@ -12537,13 +12552,13 @@
         <v>17</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>17</v>
@@ -12561,7 +12576,7 @@
         <v>17</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12579,64 +12594,62 @@
         <v>17</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>17</v>
@@ -12685,7 +12698,7 @@
         <v>17</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12706,10 +12719,10 @@
         <v>17</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>17</v>
@@ -12718,44 +12731,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>17</v>
       </c>
@@ -12803,19 +12822,19 @@
         <v>17</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>17</v>
@@ -12824,10 +12843,10 @@
         <v>17</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>17</v>
@@ -12838,21 +12857,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>17</v>
@@ -12864,17 +12883,15 @@
         <v>17</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>17</v>
@@ -12923,19 +12940,19 @@
         <v>17</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>17</v>
@@ -12958,14 +12975,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12978,26 +12995,24 @@
         <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>17</v>
       </c>
@@ -13045,7 +13060,7 @@
         <v>17</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13069,7 +13084,7 @@
         <v>17</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>17</v>
@@ -13080,45 +13095,45 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>17</v>
@@ -13128,7 +13143,7 @@
         <v>17</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>539</v>
+        <v>17</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>17</v>
@@ -13143,13 +13158,13 @@
         <v>17</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>17</v>
@@ -13167,34 +13182,34 @@
         <v>17</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>17</v>
@@ -13202,7 +13217,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>487</v>
@@ -13213,7 +13228,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>89</v>
@@ -13228,19 +13243,19 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>17</v>
@@ -13250,7 +13265,7 @@
         <v>17</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>17</v>
+        <v>544</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>17</v>
@@ -13265,13 +13280,13 @@
         <v>17</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>17</v>
@@ -13292,7 +13307,7 @@
         <v>487</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>89</v>
@@ -13310,21 +13325,21 @@
         <v>491</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>492</v>
@@ -13347,22 +13362,22 @@
         <v>17</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>17</v>
@@ -13387,13 +13402,13 @@
         <v>17</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>17</v>
@@ -13420,7 +13435,7 @@
         <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>101</v>
@@ -13429,38 +13444,38 @@
         <v>17</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>17</v>
@@ -13475,16 +13490,16 @@
         <v>188</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>17</v>
@@ -13512,10 +13527,10 @@
         <v>342</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>17</v>
@@ -13533,16 +13548,16 @@
         <v>17</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>101</v>
@@ -13551,31 +13566,31 @@
         <v>17</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13594,19 +13609,19 @@
         <v>17</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>17</v>
@@ -13631,13 +13646,13 @@
         <v>17</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>17</v>
@@ -13655,7 +13670,7 @@
         <v>17</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13673,64 +13688,62 @@
         <v>17</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>17</v>
@@ -13779,7 +13792,7 @@
         <v>17</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13800,10 +13813,10 @@
         <v>17</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>17</v>
@@ -13812,44 +13825,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>17</v>
       </c>
@@ -13897,19 +13916,19 @@
         <v>17</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>17</v>
@@ -13918,10 +13937,10 @@
         <v>17</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>17</v>
@@ -13932,21 +13951,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>17</v>
@@ -13958,17 +13977,15 @@
         <v>17</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>17</v>
@@ -14017,19 +14034,19 @@
         <v>17</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>17</v>
@@ -14052,14 +14069,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14072,26 +14089,24 @@
         <v>17</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O99" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>17</v>
       </c>
@@ -14139,7 +14154,7 @@
         <v>17</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14163,7 +14178,7 @@
         <v>17</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>17</v>
@@ -14174,45 +14189,45 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>17</v>
@@ -14222,7 +14237,7 @@
         <v>17</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>17</v>
@@ -14237,13 +14252,13 @@
         <v>17</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>17</v>
@@ -14261,34 +14276,34 @@
         <v>17</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>17</v>
@@ -14296,7 +14311,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>487</v>
@@ -14307,7 +14322,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>89</v>
@@ -14322,19 +14337,19 @@
         <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>17</v>
@@ -14344,7 +14359,7 @@
         <v>17</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>17</v>
+        <v>555</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>17</v>
@@ -14359,13 +14374,13 @@
         <v>17</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>17</v>
@@ -14386,7 +14401,7 @@
         <v>487</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>89</v>
@@ -14404,21 +14419,21 @@
         <v>491</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>492</v>
@@ -14441,22 +14456,22 @@
         <v>17</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>17</v>
@@ -14481,13 +14496,13 @@
         <v>17</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>17</v>
@@ -14514,7 +14529,7 @@
         <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>101</v>
@@ -14523,38 +14538,38 @@
         <v>17</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>17</v>
@@ -14569,16 +14584,16 @@
         <v>188</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>17</v>
@@ -14606,10 +14621,10 @@
         <v>342</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>17</v>
@@ -14627,16 +14642,16 @@
         <v>17</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>101</v>
@@ -14645,31 +14660,31 @@
         <v>17</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14688,19 +14703,19 @@
         <v>17</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>17</v>
@@ -14725,13 +14740,13 @@
         <v>17</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>17</v>
@@ -14749,7 +14764,7 @@
         <v>17</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14767,64 +14782,62 @@
         <v>17</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>17</v>
@@ -14873,7 +14886,7 @@
         <v>17</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14894,10 +14907,10 @@
         <v>17</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>17</v>
@@ -14906,44 +14919,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="D106" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>17</v>
       </c>
@@ -14991,19 +15010,19 @@
         <v>17</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>17</v>
@@ -15012,10 +15031,10 @@
         <v>17</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>17</v>
@@ -15026,21 +15045,21 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>17</v>
@@ -15052,17 +15071,15 @@
         <v>17</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>17</v>
@@ -15111,19 +15128,19 @@
         <v>17</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>17</v>
@@ -15146,14 +15163,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15166,26 +15183,24 @@
         <v>17</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O108" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>17</v>
       </c>
@@ -15233,7 +15248,7 @@
         <v>17</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15257,7 +15272,7 @@
         <v>17</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>17</v>
@@ -15268,45 +15283,45 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>17</v>
@@ -15316,7 +15331,7 @@
         <v>17</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>561</v>
+        <v>17</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>17</v>
@@ -15331,13 +15346,13 @@
         <v>17</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>17</v>
@@ -15355,34 +15370,34 @@
         <v>17</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>17</v>
@@ -15390,7 +15405,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>487</v>
@@ -15401,7 +15416,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>89</v>
@@ -15416,19 +15431,19 @@
         <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>17</v>
@@ -15438,7 +15453,7 @@
         <v>17</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>17</v>
+        <v>566</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>17</v>
@@ -15453,13 +15468,13 @@
         <v>17</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>17</v>
@@ -15480,7 +15495,7 @@
         <v>487</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>89</v>
@@ -15498,21 +15513,21 @@
         <v>491</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>492</v>
@@ -15535,22 +15550,22 @@
         <v>17</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>17</v>
@@ -15575,13 +15590,13 @@
         <v>17</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>17</v>
@@ -15608,7 +15623,7 @@
         <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>101</v>
@@ -15617,38 +15632,38 @@
         <v>17</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>17</v>
@@ -15663,16 +15678,16 @@
         <v>188</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>17</v>
@@ -15700,10 +15715,10 @@
         <v>342</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>17</v>
@@ -15721,16 +15736,16 @@
         <v>17</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>101</v>
@@ -15739,31 +15754,31 @@
         <v>17</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15782,19 +15797,19 @@
         <v>17</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>17</v>
@@ -15819,13 +15834,13 @@
         <v>17</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>17</v>
@@ -15843,7 +15858,7 @@
         <v>17</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15861,23 +15876,145 @@
         <v>17</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO113" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP113" t="s" s="2">
+      <c r="AO114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP113">
+  <autoFilter ref="A1:AP114">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15887,7 +16024,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-braden-scale-assessment</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-braden-scale-assessment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-assessment</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-nursing-assessment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1490,7 +1490,7 @@
     <t>skinTone</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-skintone-observation|https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-monk-skintone-observation)
+    <t xml:space="preserve">Reference(https://opennursingcoreig.com/StructureDefinition/onc-skintone-observation|https://opennursingcoreig.com/StructureDefinition/onc-monk-skintone-observation)
 </t>
   </si>
   <si>
@@ -2170,7 +2170,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="159.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
